--- a/biology/Botanique/Banpeiyu/Banpeiyu.xlsx
+++ b/biology/Botanique/Banpeiyu/Banpeiyu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Banpeiyu (japonais : 晩白柚), Citrus maxima ‘Banpeiyu’, est un cultivar de Citrus maxima. C’est un agrume à très gros fruits[1]. C'est un des nombreux agrumes que l'on ne trouve quasiment qu'au Japon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Banpeiyu (japonais : 晩白柚), Citrus maxima ‘Banpeiyu’, est un cultivar de Citrus maxima. C’est un agrume à très gros fruits. C'est un des nombreux agrumes que l'on ne trouve quasiment qu'au Japon.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Malaisie, importé à Taïwan en 1920, et de là au Japon[2], l'arbre est grand et de croissance vigoureuse. Les bourgeons sont poilus ainsi que la face inférieure des feuilles. Le fruit est très grand et presque sphérique, il a un mésocarpe (peau blanche de l'intérieur des agrumes) épais qui est jaune pâle et lisse. Les vésicules endocarpiques (petit "grains" remplis de jus à l'intérieur des quartiers d'agrume) sont également jaune pâle, fermes mais tendres et juteux, avec un excellent équilibre entre le sucré et l'acide. Les quartiers sont séparés en 15-18 segments aux parois fines mais résistantes. Le fruit, moyennement tardif, se conserve bien pendant plusieurs mois. Largement cultivé en Orient, il le principal cultivar de pomelo du Japon où il n'atteint une grande qualité que dans les endroits les plus chauds[2].
-Lors d'un concours du plus gros Banpeiyu, organisé à Yatsushiro, Kumamoto, en 2014, un de ces fruits a été présenté par l'école d'agriculture de Kumamoto (Kumamoto Prefectural Yatsushiro Agricultural High School). Il obtient le prix du plus gros pomelo du monde avec un fruit de 4,86 kg pour 83,5 cm de circonférence certifié par le Livre Guinness des records[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Malaisie, importé à Taïwan en 1920, et de là au Japon, l'arbre est grand et de croissance vigoureuse. Les bourgeons sont poilus ainsi que la face inférieure des feuilles. Le fruit est très grand et presque sphérique, il a un mésocarpe (peau blanche de l'intérieur des agrumes) épais qui est jaune pâle et lisse. Les vésicules endocarpiques (petit "grains" remplis de jus à l'intérieur des quartiers d'agrume) sont également jaune pâle, fermes mais tendres et juteux, avec un excellent équilibre entre le sucré et l'acide. Les quartiers sont séparés en 15-18 segments aux parois fines mais résistantes. Le fruit, moyennement tardif, se conserve bien pendant plusieurs mois. Largement cultivé en Orient, il le principal cultivar de pomelo du Japon où il n'atteint une grande qualité que dans les endroits les plus chauds.
+Lors d'un concours du plus gros Banpeiyu, organisé à Yatsushiro, Kumamoto, en 2014, un de ces fruits a été présenté par l'école d'agriculture de Kumamoto (Kumamoto Prefectural Yatsushiro Agricultural High School). Il obtient le prix du plus gros pomelo du monde avec un fruit de 4,86 kg pour 83,5 cm de circonférence certifié par le Livre Guinness des records.
 </t>
         </is>
       </c>
@@ -545,13 +559,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Huile essentielle
-Elle a un pourcentage faible chez les agrumes de limonène (49 à 55%) et élevé de myrcène (35%) d'où une note agréable anisée[4]. Banpeyiu est avec hassaku et le citron Ichang riche en auraptene, coumarine étudiée comme complément alimentaire[5]. Une analyse (1990) est disponible dans une publication séparée de M. Sawamura[6].
-Consommation
-Ce fruit est très populaire au Japon. Consommé frais, il est apprécié pour son parfum, son mélange d'acidité et de douceur. On peut aussi le consommer confit au sucre[7]. Le fruit de bampeiyu est asperme (sans pépins). Une étude japonaise (2021) décrit les populations d'agrume japonais (avec des correspondances en Chine) sur la base de la génétique de l'auto-incompatibilité de ces agrumes [8].
+          <t>Huile essentielle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Elle a un pourcentage faible chez les agrumes de limonène (49 à 55%) et élevé de myrcène (35%) d'où une note agréable anisée. Banpeyiu est avec hassaku et le citron Ichang riche en auraptene, coumarine étudiée comme complément alimentaire. Une analyse (1990) est disponible dans une publication séparée de M. Sawamura.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Banpeiyu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Banpeiyu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Spécificités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Consommation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce fruit est très populaire au Japon. Consommé frais, il est apprécié pour son parfum, son mélange d'acidité et de douceur. On peut aussi le consommer confit au sucre. Le fruit de bampeiyu est asperme (sans pépins). Une étude japonaise (2021) décrit les populations d'agrume japonais (avec des correspondances en Chine) sur la base de la génétique de l'auto-incompatibilité de ces agrumes .
 Il est également utilisé pour fabriquer une gelée aux fruits.
-Dans la culture japonaise
-Traditionnellement les japonais placent des Banpeiyu ainsi que d'autres agrumes entiers dans l'eau de leur bain pour la parfumer, et aussi pour lutter contre les coups de froid[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Banpeiyu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Banpeiyu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Spécificités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dans la culture japonaise</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement les japonais placent des Banpeiyu ainsi que d'autres agrumes entiers dans l'eau de leur bain pour la parfumer, et aussi pour lutter contre les coups de froid.
 </t>
         </is>
       </c>
